--- a/output/CodeSystem-th-gov-coverage-type-cs.xlsx
+++ b/output/CodeSystem-th-gov-coverage-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-th-gov-coverage-type-cs.xlsx
+++ b/output/CodeSystem-th-gov-coverage-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
